--- a/Asunaro Summer 2015/Summer Schedule Japanese 2015.xlsx
+++ b/Asunaro Summer 2015/Summer Schedule Japanese 2015.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="11760"/>
+    <workbookView xWindow="3060" yWindow="0" windowWidth="23400" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,21 +53,12 @@
     <t>※スケジュールは都合により変更する場合もございますのでご了承ください。</t>
   </si>
   <si>
-    <t>お祭り飾りを作ろう！</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>みんなで　　おみこし作り</t>
-  </si>
-  <si>
-    <t>　　水泳　　　　　　　ふれあい　　動物園</t>
-  </si>
-  <si>
     <t>American Games</t>
   </si>
   <si>
@@ -70,139 +66,133 @@
   </si>
   <si>
     <t>サンドアート</t>
+  </si>
+  <si>
+    <t>7/1</t>
+  </si>
+  <si>
+    <t>8/1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>8/2</t>
+  </si>
+  <si>
+    <t>花火をみんなでうちあげよう</t>
+  </si>
+  <si>
+    <t>七夕飾りを 作ってみんなで飾り付けをしよう</t>
+  </si>
+  <si>
+    <t>海の生き物をつくろう</t>
+  </si>
+  <si>
+    <t>第３期(7/20-7/31): まつりだワッショイ！</t>
+  </si>
+  <si>
+    <t>第１期 (6/22-7/2): もっと知りたいアメリカのこと☆七夕祭り</t>
+  </si>
+  <si>
+    <t>　かわいい　　サーカス　アニマル</t>
+  </si>
+  <si>
+    <t>２０１５年サマースクール　スケジュール</t>
+  </si>
+  <si>
+    <t>第２期 (7/6-7/17):  アンダー・ザ・シー　海の世界へ</t>
+  </si>
+  <si>
+    <t>第４期 (8/3-8/14): わくわくあすなろサーカス！</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <rFont val="EPSON 丸ゴシック体Ｍ"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
       </rPr>
-      <t>アメリカって　　　　どんな国？　 　</t>
+      <t>アメリカって どんな国？  アメリカを    もっと知ろう</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>願い事はかなう かな?短冊作り</t>
+    </r>
+  </si>
+  <si>
+    <t>パジャマで     夜空の星を ながめよう！</t>
+  </si>
+  <si>
+    <t>独立記念日   休園</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海底探検へ　 Go!</t>
+  </si>
+  <si>
+    <t>　　水泳　　　ふれあい　動物園</t>
+  </si>
+  <si>
+    <t>　ナイト　　  　マーケットへ　  おでかけ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金魚すくいに　ちょうせん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  みんなで　  おみこし作り</t>
+  </si>
+  <si>
+    <t>　かき氷を　  つくろう</t>
+  </si>
+  <si>
+    <t>まつりだ！    わっしょい！</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　たのしい　　サーカス　     </t>
     </r>
     <r>
       <rPr>
         <sz val="7.5"/>
         <color theme="1"/>
-        <rFont val="EPSON 丸ゴシック体Ｍ"/>
-      </rPr>
-      <t>アメリカを　もっと知ろう</t>
-    </r>
-  </si>
-  <si>
-    <t>独立記念日 休園</t>
-  </si>
-  <si>
-    <t>7/1</t>
-  </si>
-  <si>
-    <t>8/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <color theme="1"/>
-        <rFont val="EPSON 丸ゴシック体Ｍ"/>
-      </rPr>
-      <t>願い事は　　　　　　　かなうかな？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="EPSON 丸ゴシック体Ｍ"/>
-        <family val="3"/>
+        <rFont val="ＭＳ ゴシック"/>
         <charset val="128"/>
-      </rPr>
-      <t>　 短冊作り</t>
-    </r>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>8/2</t>
-  </si>
-  <si>
-    <t>花火をみんなでうちあげよう</t>
-  </si>
-  <si>
-    <t>七夕飾りを 作ってみんなで飾り付けをしよう</t>
-  </si>
-  <si>
-    <t>第２期 (7/6- 7/17):  アンダー・ザ・シー　海の世界へ</t>
-  </si>
-  <si>
-    <t>海の生き物をつくろう</t>
-  </si>
-  <si>
-    <t>　海賊に　　変身！</t>
-  </si>
-  <si>
-    <t>第３期(7/20-7/31): まつりだワッショイ！</t>
-  </si>
-  <si>
-    <t>　かき氷を　　つくろう</t>
-  </si>
-  <si>
-    <t>　金魚すくいに　ちょうせん！</t>
-  </si>
-  <si>
-    <t>まつりだ！　わっしょい！</t>
-  </si>
-  <si>
-    <t>第４期 (8/3- 8/14): わくわくあすなろサーカス！</t>
-  </si>
-  <si>
-    <r>
-      <t>　たのしい　　サーカス　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color theme="1"/>
-        <rFont val="EPSON 丸ゴシック体Ｍ"/>
       </rPr>
       <t>アニマルダンス</t>
     </r>
   </si>
   <si>
-    <t>　うきうき　　すいかわり</t>
-  </si>
-  <si>
-    <t>　ピエロに　なっちゃおう</t>
-  </si>
-  <si>
-    <t>レッツゴー！　あすなろ　サーカス</t>
-  </si>
-  <si>
-    <t>　　ナイト　　　マーケットへ　おでかけ</t>
-  </si>
-  <si>
-    <t>　パジャマで　　夜空の星を　　ながめよう！</t>
-  </si>
-  <si>
-    <t>　海の世界を　　　のぞいて　みよう</t>
-  </si>
-  <si>
-    <t>第１期 (6/22-7/2): もっと知りたいアメリカのこと☆七夕祭り</t>
-  </si>
-  <si>
-    <t>海底探検へ　Go!</t>
-  </si>
-  <si>
-    <t>　かわいい　　サーカス　アニマル</t>
-  </si>
-  <si>
-    <t>２０１５年サマースクール　スケジュール</t>
+    <t>　うきうき　  すいかわり</t>
+  </si>
+  <si>
+    <t>　ピエロに　  なっちゃおう</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> レッツゴー！　あすなろ　     サーカス</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> お祭り飾りを　つくろう！</t>
+  </si>
+  <si>
+    <t>　 海賊に　 　変身！</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海の世界を   のぞいて  みよう</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,72 +209,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-      <family val="3"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-    </font>
-    <font>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-    </font>
-    <font>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="EPSON 丸ゴシック体Ｍ"/>
-      <family val="3"/>
+      <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
     <font>
@@ -292,9 +257,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,33 +286,33 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -350,33 +321,33 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -385,21 +356,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -407,14 +378,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,7 +394,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,43 +402,43 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -475,27 +446,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,47 +474,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,8 +523,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,83 +577,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +639,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1025,674 +991,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="A2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="17">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>21</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <v>22</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="11">
         <v>24</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>25</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="11">
         <v>26</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <v>27</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6">
+      <c r="H8" s="8"/>
+      <c r="I8" s="10">
         <v>19</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="11">
         <v>20</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="11">
         <v>21</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="13">
         <v>22</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="14">
         <v>23</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="11">
         <v>24</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="67.5" customHeight="1" thickBot="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>26</v>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="33" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="39" t="s">
-        <v>32</v>
+      <c r="L9" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
+      <c r="N9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="17">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="6">
+    <row r="11" spans="1:15" ht="17">
+      <c r="A11" s="10">
         <v>28</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11">
+        <v>27</v>
+      </c>
+      <c r="K11" s="11">
+        <v>28</v>
+      </c>
+      <c r="L11" s="13">
+        <v>29</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6">
-        <v>26</v>
-      </c>
-      <c r="J11" s="7">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7">
-        <v>28</v>
-      </c>
-      <c r="L11" s="31">
+      <c r="O11" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="67.5" customHeight="1" thickBot="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>19</v>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" ht="17">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11">
         <v>10</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="G15" s="12">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4</v>
+      </c>
+      <c r="L15" s="11">
+        <v>5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>6</v>
+      </c>
+      <c r="N15" s="11">
+        <v>7</v>
+      </c>
+      <c r="O15" s="12">
         <v>8</v>
       </c>
-      <c r="L12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="27" t="s">
+    </row>
+    <row r="16" spans="1:15" ht="67.5" customHeight="1" thickBot="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="6">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7">
-        <v>9</v>
-      </c>
-      <c r="F15" s="7">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="7">
-        <v>3</v>
-      </c>
-      <c r="K15" s="7">
-        <v>4</v>
-      </c>
-      <c r="L15" s="7">
-        <v>5</v>
-      </c>
-      <c r="M15" s="7">
-        <v>6</v>
-      </c>
-      <c r="N15" s="7">
-        <v>7</v>
-      </c>
-      <c r="O15" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="14" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="10"/>
+      <c r="N16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="6">
+    <row r="18" spans="1:15" ht="17">
+      <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="11">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="11">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="11">
         <v>16</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="11">
         <v>17</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="12">
         <v>18</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6">
+      <c r="H18" s="8"/>
+      <c r="I18" s="10">
         <v>9</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="11">
         <v>10</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="11">
         <v>11</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="11">
         <v>12</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="11">
         <v>13</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="11">
         <v>14</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1"/>
+      <c r="L19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+    </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="47" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="1:15" ht="17">
+      <c r="A22" s="36"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:15" ht="17">
+      <c r="A23" s="36"/>
+      <c r="B23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1705,32 +1697,48 @@
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="I13:O13"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="95" orientation="landscape" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>